--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/38_Iğdır_2021.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/38_Iğdır_2021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C21AFF0-D13D-4A2B-8773-9A71D7812161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D61E4735-86B0-45CD-B1FE-878459150E2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="683" xr2:uid="{92E00C83-BDE3-4899-837F-5E6AE675B068}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="683" xr2:uid="{697E0BAD-5AA4-4BB4-A6D8-E6EF6199D4F4}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -964,14 +964,14 @@
   <cellStyles count="10">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{89337A78-AB4E-443F-A911-2D6C06459C07}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{B2B402D0-46BE-4C52-B481-3F7720DEFDAB}"/>
-    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{FDF5CC77-222A-48AE-A480-2D8CAFC8FA4D}"/>
-    <cellStyle name="Normal 3" xfId="5" xr:uid="{334098C8-B01F-41D2-9EB0-E3D32B135E1D}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{FF7A45AE-4804-4759-A58F-D7F04B2E8D00}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{D5E22A18-0C91-4BEA-9610-DA6A95A8CD1D}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{EC28ABCC-F41E-4390-A67F-AC7F7DFEAEAB}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{CB507C2B-2771-48F3-BC9C-6956C1BBAB56}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{4BC1B484-B0A2-457F-B8EB-67A92139B083}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{08843BB3-27C0-4EAD-841D-A892133B61EE}"/>
+    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{7607E211-EEF7-4BDB-8305-7EB21315457A}"/>
+    <cellStyle name="Normal 3" xfId="5" xr:uid="{A82DDB4C-8D84-4BD2-BE01-9FE7F29D63D6}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{AB783273-C826-4267-A8F5-152EBE5DA6D3}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{05EF50C4-65AA-4632-862B-2F56AB2BE044}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{D43DC979-E0F6-49F9-A0B3-90E18F31F7D3}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{8BBB6C65-81AE-4525-9AE3-84CAE2ADD7B9}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1341,7 +1341,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6EFFE16-8A43-41F4-BEE0-C89399E3702E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C971FDF0-1F9E-4E19-B713-FFC53C72EC99}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2578,18 +2578,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C5F84746-2999-4D4A-87DA-CD00EB7DB568}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{19D3738B-8F10-4475-8111-378A99CE233B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{BF933DD3-2790-4AE3-82A7-560A5F697B6D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8859F2DE-8655-4419-9F9B-12A128DFE561}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8E2785F7-D40C-4658-AA8B-2B078CF5681E}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{C05D76FB-D725-4B9F-AF66-002DC6A199CB}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6C620607-E71F-46D0-A7B7-4D3C688D7943}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{55289B5D-AC10-410F-B52F-783ED8ED7F7B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5225C686-5F16-4C10-8191-F08DB59CF945}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{BAEA2A52-63EC-4243-876D-BC32FB6F09D1}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{75F46EE2-5A97-4B7A-86DD-67953845D541}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{59A2192F-7D30-4CC9-8BCA-25580B955D90}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{378D1E31-52F3-4BF5-9364-3E5E4CB33219}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EBA8CE2A-7215-4388-80E0-54B15C3CA5EF}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{26E60CD3-DFF7-44B8-B25B-FDB2D0384D63}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0792CD23-8330-4807-84AF-0C01052DA50B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1B0911AD-42AB-40DF-B60D-4614C9293A30}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{D6F62BA7-C4A2-4143-9108-C138806269B2}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{840EE314-B435-4C44-A056-A3FA5E248497}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DC7890B5-62B4-4818-9ECE-3367EFD6DDB8}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{79DF7BA1-CE0A-41A4-A204-36DEC25FF84B}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{40372657-1914-4C61-B204-016B54CD7876}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3E7ED463-8084-4D53-944B-55E6B7B74B60}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BCB710BA-A1A1-4F30-890E-DDBFE840F837}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2602,7 +2602,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88038824-C6DD-44A5-BBBC-7F6474F6F4E9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3D54604-703F-490D-9002-ADF358B97D15}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3891,18 +3891,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1D6D3167-63C4-4F4D-9EC7-787C7943ED9B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{01D6205E-A916-4BB5-97E5-DAB9F110C27F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6D4D96D9-8AF0-4E4F-BEB8-F729B90D4AE1}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{050FF6D1-AD08-4148-A1B2-11EDEEF90F6C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{160B65FC-3AD9-4E4F-8385-9BB7B5E4E38D}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{D7FF4B57-5DCB-448D-B855-2F995BA07FB4}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8118537F-A3B8-4098-8177-C4824FBADDFD}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DC69D465-7D07-49D0-9736-FB6593120C3B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A586C893-AD03-4AE5-9688-FF1BC8E484E0}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{63F73BD6-1405-455C-ACB5-191361ACD73D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5A1F58FD-2106-482B-9AF3-1630CFEF4AA2}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F27B5DCB-5868-41BD-9AE8-6E7BAA626576}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FB767217-7317-484D-94F8-1B3F8E7EEBD7}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{625D0018-2081-4725-90F7-B9C31FBFD209}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C40C7752-7762-4C32-95DA-2BF37EF2CB21}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{ECED9428-1F2A-45C6-9F2E-330D837A27EF}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BF438295-1745-45A2-80F2-060FEDD90D6B}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{D26F61D7-2B84-4FCD-BF3C-695F4870EE80}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{34D5F894-62B5-4AF0-B710-1D3C4BC5E99D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EB3712D1-F4C2-439D-9290-3DB5D094DA24}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{03AAC0A9-1368-4DB9-99B5-281E794B9ED4}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{02883DBD-6447-41D0-929D-D1C222E407EF}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5594741E-5742-4117-AE73-19B420650D4D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C782554A-E93B-41CC-947A-9D2D1A6AF638}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3915,7 +3915,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7DA8A72-DFD2-4126-B75D-B1BA68F0EDAC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADA7A73A-49B4-432D-9314-D05B08EF9140}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5204,18 +5204,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3AE933BC-A709-4D6D-97F5-7133C22B410E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6ED88300-F0A8-49AA-B68F-096007357477}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{9716F640-F5BE-4B5D-BC40-9ED5F4CF0A91}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{3EF0E8C3-61F1-4291-96D2-8F48F356F128}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A7328B56-B58C-4973-8F97-FFF9D4D64452}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{59C16D49-721E-4C5C-A642-046F3C5D1C4A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B28C9541-2FEF-4A9A-97BD-F56E0839CF6C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{884EF2EC-6E31-4D65-AE03-000C433C9101}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D0692864-334F-4D21-855C-D4D1585E9A1D}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{44510E05-AAA8-4242-BD83-1CA4EF5B7B33}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{45B33E6C-888E-4111-8FA5-7FD352B4405F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8D7D27A2-4077-4ED1-A8AB-99AFC0692DFD}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B348FEBF-6F92-4205-93CB-2124A0D4E1B1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5FFC9D0E-F205-4369-88D8-0DE27367DDF5}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{69974AB1-D233-42DE-AF5A-3D7760E6B4A3}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2B67E507-06FC-44E4-B997-F5283FB360AD}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F518E34E-54E1-48A9-9882-EB12AD93E8D9}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{FD7D6D04-D919-40E0-936F-0AFE36377A07}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D191014A-55C2-44CE-879F-D5B46E06C46B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BC3BEDFF-23A0-4280-8043-1C3ADC4E92EF}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A81D8AF5-2E1C-46AB-ADC0-86415EC5D99D}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{0CA151B1-01DB-4601-BAD0-2DA81ED43B0B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E179D14D-AE2A-47C6-8E8B-27B5B699C31A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A285FD4F-1354-44FC-9A54-600F0A381F48}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5228,7 +5228,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0EEF48D-2111-49C6-95B8-66A377D7F93E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0967404E-8AB6-4D7C-BB28-38259ABC6F4C}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6501,18 +6501,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7B5B8F1C-F360-416D-B4C8-807ED7AF344D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6123EB7A-0D1D-4A34-9BAA-0609CADC9F62}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0FCF33C5-89B6-47A1-9F58-A7A3CDFA79B2}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1426780F-CE70-4617-8D2F-393260C92D37}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{27BD4AA2-C26A-4808-AA13-0E89213BC7B0}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{929BFD78-BF8F-40F4-848B-934C22C4EC9C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{19B671F5-C846-4009-9282-D8A4D0255D74}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{27A04CAD-1785-45F2-9C38-3C8D4A03A070}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0EC8D225-C7F0-4F8F-A6CB-55117DC4CFAB}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{82743332-FCE9-4709-9346-08F743B02B56}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D29A97C5-A5DE-43A8-89D3-D7C6713B7357}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{575F884B-5CB7-4A84-B554-4A483DC8D14C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BBD55A53-63A6-499E-A113-9D8E6581FD83}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DC86A202-F08C-4520-A50E-2172BC9B8EF0}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{44844643-D345-4B17-AEDF-EB8F62FBAD18}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9F3F80BE-AE50-4590-A47C-143403F3B4C1}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D3C2BBD4-EEA5-4289-A318-A9C4DF9356AB}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{16B4D54A-43B7-42D2-B20C-0ED1F3FC6453}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{649B3847-6900-4827-9EC3-282809042C5D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2E1DF529-2754-4F80-B432-958500CBE15F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FA8BE4F5-ADCB-4735-B53D-F96AF55261A9}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{1506BA05-00D5-4101-AC6E-E50FAE27DFC8}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2834D97E-3CD4-438B-A206-ECFAF7AECC9D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5D3AFDEC-ECF6-4A11-BF5C-426B8E29DAF5}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6525,7 +6525,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB7FDF72-6605-452B-B605-731D2112B658}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CC29A24-275F-4B47-A8A9-6C5AF3771D9A}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7764,18 +7764,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{249EAD83-8CE2-4E5D-A464-DF2B5C41EBB0}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2591A6D0-A646-4E63-A3B4-D25AD4ED24F8}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{EC989817-E608-488E-B916-DD576046784E}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{39ED460D-534D-4310-AB24-FD012F3BBD62}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B939C646-23AA-413D-A8F2-939D200067AD}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{B6317FDE-9D2A-413D-9BC2-1A99F46E3FB5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9ADFB61D-0892-42B2-9798-69202A148E25}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1BE4455E-700F-46FD-8623-DA4F6687A97F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E43A7571-097B-43E5-A06D-C7B87B7E509E}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{DB176426-C0DD-4D31-993C-F5EC403408C7}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{57C7D4E6-C417-481B-85D7-31D7F33F3427}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8AF7EAAA-D2FF-4D80-B679-542EF4474ABC}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7139F8E2-3400-40E2-AF2C-72595B2C7750}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{589318CC-D03F-4C73-940E-F37360AF4C2E}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F612EF9C-3EF8-4E3C-8B4C-48EC34CE9F2C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1077E6D7-4BB5-4AAE-8E76-2216D256697C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3FA59200-4488-4B0A-AE2E-422C82BD428C}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{EC0A49F3-8A1F-48E3-AA65-E18FF776FC90}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{66BE8A4D-44C7-44E2-A669-39BFE2625A24}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FCE12561-A82A-498D-97C3-A1FA9F751F22}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{46D418D8-073E-4EF4-ACED-84B9C289AFD0}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{1859F3AC-0D10-497F-97FB-7F8070AC5491}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BAD5E8BA-5D64-42AB-A523-28BF0FF86F9D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F6D2632F-2C92-420B-A4FF-EB175737669A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7788,7 +7788,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D759C9CF-D665-41B1-89F8-A6EC444BF3FD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39F725E6-435A-4AB2-AE37-053AF84E876C}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9027,18 +9027,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{442944A6-9095-4ABE-A170-784CCC9B9783}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CB0BF8DC-861E-4472-A777-B85C7383C62B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1992269A-4591-4B9C-B737-AA7230A0BD81}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{81661750-F930-4BC8-88D7-48699D043750}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2C386E57-1D34-4057-8C85-C9B65025CC21}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{C1B87F44-CB80-4A32-BA28-09B240EA2A36}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0C6D855A-9AE3-4A4B-B625-A2C293A4767D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{951C6FA0-ADAF-4BD2-A5E7-8BF613ED4EFE}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F3DD1507-DE69-4C54-AF4A-83D272B25A9D}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{E61AF33A-FEB3-4ECE-AA1A-9CFDE0FFBE13}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B32BFBC7-4339-4D01-8F03-D33601F87DA5}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A401997A-82BE-4C92-996B-9A0398B35B19}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6BD5F4AE-AAE9-43A9-82D6-6B9B152B1749}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EF054BE3-3C95-4F85-8540-1A736A4E07BE}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{73BFD151-7677-4AC0-9137-D41DBFA98CB9}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{4ECBBFC4-A22A-45B3-9E7F-27ABD4479BE8}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AD20EAE6-4204-4835-B0BF-3E88C9139BB9}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{FE7F2567-9B05-4A95-A807-47F795738AC8}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{863AF3F4-52D3-4D22-8B9F-66D1026D92C4}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BC24D039-C533-429D-A517-65369F3772A8}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7DDD91C5-20CE-4D03-9E60-1AA894A256E9}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{88226EB6-975C-42B0-9899-EC724AABE162}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{019DEBE0-7DC2-49F1-B618-8C1B8456EDC9}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{78E72200-0FE4-407E-8652-5BB81459CAEF}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9051,7 +9051,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{585B7C7C-2EB4-4E0F-8431-CBD372CFF253}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCB50580-68C0-439C-8E82-D315E2B87E8F}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10290,18 +10290,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{183E2C7B-EA02-4C34-AFF3-116319BB4607}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{77E75FB9-F178-443A-A3D4-9FF8561CBD3F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{454A3350-122B-441F-80B2-55B069610CB5}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E8DE192D-FEE8-4EE3-B758-1C8A99E92FEE}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5D11B325-F0BB-4F41-8AFC-817C7359EDD5}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{C8A2642C-5909-436B-B931-D8ED61C91985}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C624AE67-68CF-4015-A862-B7A75BB57419}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1B1D67A4-0296-426C-8667-1FA1450140E4}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2F6B5037-1F4C-4FC0-AE2D-38DCD5FDC074}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{4C9A2475-1EE4-4085-91A0-5F7275FA9D85}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EA863BD9-71D2-41BC-9FEB-43493BC5673E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6BDD8048-92E8-4F2E-A1F4-40DAA27FA6A8}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5D23AE07-D0D4-44B5-B98C-AF220402A55F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8CAD818E-C1CC-4FDC-A290-34ABB9603228}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C7DA355B-9CBE-4416-9507-9ACF15E8AE9B}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{62002759-C557-4412-9319-1928AC6C122B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6CA2FD5A-A746-41F5-BBA6-A0C938ED0485}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{83C3FC57-F7C0-418E-A147-7B1881442A54}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C8376536-33D6-4A62-B1EA-F9E9507D655A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3CB0E5E7-C0A2-4A89-9C3F-0B8CE581401E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DBD8C9C2-A62C-438A-8E13-DF9895EC0733}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{665E2FAD-C2AD-4508-B40B-D6E2DD6E100A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{81B8A317-4BE8-4263-860D-79867F91513A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{ACC6644A-4149-4CA0-83EE-3EF1B756FA75}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10314,7 +10314,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FAD55DC-A8F2-4068-9287-0CAA15A330C4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38B8F7FA-BDD4-443E-9B50-C92B5E53FCAF}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11553,18 +11553,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3D53D602-E9B6-4443-9C89-694C192D3F35}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D84063B0-4024-4F62-B751-453003986CE9}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D0195B73-0FDA-4E37-8CE4-2BFA75C1074D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8191AF63-2DE2-4F94-B0D8-3E59D5A84B8C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5442D7A3-F382-481D-87D2-7353DAEC3E82}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{3EC2A674-29FE-4E05-B3B0-4453F839430A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{29A01BE9-E0C2-4725-AB70-EFEFB65CBDAE}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BA02E689-115D-4D8D-A14F-D2AD6A3EA794}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{55D06F32-F465-4522-8AD2-5E8ECCA6D2A5}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{7DDBBEB4-0E77-4AC9-8EAC-CF87A5ED1174}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A5EFFBA3-DCCE-45E8-8A59-35D079271686}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F78D51CE-3D41-4243-B498-F724692A976B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{101322A3-255C-4F88-ADAE-81B77B34FE62}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{36570DAF-0A45-4E3C-B636-3D55029958C9}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D9BE8BD6-15C0-4433-BCD5-8C23672B7EFA}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{EEA875A6-1350-4A20-A892-8637EFB5C545}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0F4A9F6E-DA85-49DA-9910-6134B8492EDF}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{AD470187-8E09-4E17-BEAD-801DEF9674F6}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{648B5247-64B5-44C5-8F7B-A3ED07CC58F0}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5D80E1D1-ABC4-4424-9AB6-6CA51F5D71BF}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B6D00923-43A3-4C51-B484-B51E18FB4E57}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{9DA1FBB2-C1E9-475A-B3C6-A76868C2490C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{537B81C1-9B55-4104-9A20-B5F120A36FC8}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5F19060B-B284-4FD2-A36F-8AB12BDAF58B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11577,7 +11577,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{686571DA-3316-400C-9309-E4D7DD786991}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8511BAEF-880E-429A-97A8-144440A7B33D}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12808,18 +12808,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DBB50E2D-604B-462C-824C-5FBAB865F341}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{40A1B6F0-2FD0-43E7-9B11-B00836769D7E}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6AAB53CE-9AC3-4CAB-B7B3-87C8A719C152}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B4CF6387-64AE-43A4-8DC6-4F1591BCF393}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{EA8A5D84-CFAB-44B5-87B4-5124C7D7A717}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{6A05CAB6-862D-4C03-85AC-8277CFB923A9}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{05A2BD7F-7277-4B93-A14C-FF4548ECC0D0}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D3599396-33B2-4042-AA8F-8F692462CC90}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A1D8348E-CE76-41E4-8D45-4EA46BB70F51}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{FCB03735-BC1D-4910-861A-445A78034FC8}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4BEF8D3D-A685-4B1E-89E6-345F39C905C2}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A201FD20-D6D0-43DB-86E7-855E38D993E1}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DB6A93DE-A181-4FBC-A4DE-A49F667B9EBD}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3C3AD736-AFED-417D-9CD8-70644CDE3407}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{8BAC1E35-3FFA-4B7A-BE1C-E997CEFF08C3}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6884EB01-1578-4503-BD93-6B4A81FD54BD}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{EF680BF8-53C8-4E90-962B-E45DFE001493}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{BF817BA4-E40D-4458-B26A-9EE21843F7E7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A6A48124-936E-40C1-91C8-27560DED388F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{037013E8-3363-4E72-A9CE-A9FD41819684}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2613C7BA-A5EC-49CF-B0E1-4B26BCFC4300}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{5C9F1F17-2CF5-4FC0-BA44-A501E1F92D9A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FEBB834A-6ECD-44D6-B40B-4BB995061C72}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{826EA2FD-7757-40D7-92B9-490A45D7F276}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12832,7 +12832,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7A8D1CB-E391-4D14-8903-B6EB10EB809E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E05A2956-B848-456E-8770-5653D02971CA}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14121,18 +14121,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{44C49195-B69F-40E8-B770-74B663024A4D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7FF8CCA9-1E3E-4C3E-ACD9-DD52E31E7D24}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0338F09A-421B-4FEE-ABB0-202B0E7ACEE3}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{AE794C49-AE44-401A-B698-C72986BBCE0A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B33B630D-B53F-445C-AB3A-7B93FCC05BB6}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{65084653-3BAF-4B95-8876-0C7F235BD5D0}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DB28CCB9-E82D-438C-AFCE-B706F8DF31E3}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C3961632-E983-4679-945B-8C4BFBA3BE99}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0C980958-02E4-4504-A43A-C787FC37012D}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{E1C03443-CC51-4045-A142-5DDA6A57D198}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8B974DBF-A060-474D-A2F5-A3B4C0ED96CA}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4D824B25-A5AB-4517-A152-47EEA4FC1D65}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A8684BF8-D347-4E2A-A9E2-DB9900694F40}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{61FE0EB8-D1E1-4426-A8A4-DB67EE7114B6}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{5EF89363-BDDA-4A6E-8DB1-85C2B787BDA0}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5EADCD79-9224-42DD-897D-6448CB70FEF7}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D9AC6E86-37EE-479B-9F96-13B35B420077}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{002A19EF-235B-404C-A837-743B6924EAD3}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2E532DBA-C210-4894-A31B-33D3EA8F2F3C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5A40A432-DA2A-45F7-A61E-492E7B53FCDB}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7AAF688A-406C-46BE-A163-8C3DB0DA4D0F}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{A1CC0BBB-A7C3-41B5-A8C7-5CBE68D8B980}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6945424F-706E-4702-9F73-FDD77480D3D6}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C6C5A8AA-6B05-470B-8703-C844FE099978}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14145,7 +14145,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10BC305D-47DD-4BB6-8E38-A3972DEF56E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CF47E0E-5CFD-4B24-9117-432CB788EE9F}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15434,18 +15434,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{22D416AA-B846-4494-B896-2ACDDEAC7115}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BD8959C0-0F94-4793-B85A-E5293D6A9C11}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A86B37DF-14CD-4584-A176-9FD2F1A6FC03}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{370D29CF-73D2-4F8F-BDED-737694F70D31}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3419297B-B4CC-402E-B4D3-8F6F18200A31}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{E21BB4FC-283E-40AF-92F9-CBE8B7A8BA9F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EF012626-5AFD-43FA-84BF-E08B4D5C2173}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0ACB37D9-E7E3-491B-A0A8-138E6C750C84}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5B03497B-439F-4B99-A235-AC7949EE776A}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{F37B3BCE-9337-452E-BC6A-9CF90B27768E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F9CBFC7C-9D83-4E25-8C25-9525B2A40606}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AC00D71F-D204-464A-A56E-EDBDEE460DE8}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{25EF3F6F-A716-4F6F-B557-6FF6642D5C5E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B0C48E72-C025-4119-BCEE-497AC4BB8215}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{2F707EBD-354C-41A4-9171-ED752FA33E08}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9C534BEB-6783-4CBF-9ABA-22CA1C743FB9}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A85BA3AD-C923-4336-81A6-6B2060508976}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{9C3DA0EA-0967-42D6-8528-06CF706CB08C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1868007A-65B7-4F1A-A8E5-1234BEFA2F9A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2175C7C1-76AB-4375-976D-E27D73D016B5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F9B4A5B4-6A7B-466F-9C19-767820C67B87}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{00B29764-F362-4647-B231-404E50DFD85F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B8C22DE6-6204-4B28-A2C5-8B2F01C734F4}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{96D8489B-6686-47D5-A0B5-53311BD01A9D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15458,7 +15458,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06E5D492-9A8E-42D3-AFE9-9525C2576BAB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3D0917F-5D87-4326-BF5C-333B67F2F7DF}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16747,18 +16747,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6547B337-E38A-4833-80A2-8A0A0740622A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{01EEDFAB-87FB-4D47-9AA5-FA6347CFC55C}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{DF220BCC-32F1-4165-A8E6-C54528550C2B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C688AF1D-9F17-431B-BFB4-0CE2DCD7970C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{98217D60-2FF1-40DA-8C0C-F990A38D7F88}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{DEF2F5BB-47A6-4D33-86A1-FD3158577F96}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F6EC5514-5473-4203-9A88-6391F99D88BB}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{46CBFE97-700A-4F29-901C-3785CB2BB07C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{76B85C77-9B4B-45F1-852F-2E1E7281A4E3}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{0BBE2B0D-0A32-4E7D-B064-8ADD47B456E4}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A36887FF-4470-4EBC-BC6D-9DFDF6538957}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1B4D57C0-52A9-462E-835F-C619184558B6}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{00241AED-26A3-4ACC-B400-DE08E1062E14}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FF9C570B-7B41-4F0A-B29D-7D47B5123CE5}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{80037D76-7898-4668-BFDC-41A56D8D9C28}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B8FE90D1-A5CF-4837-82DB-075FBC2BC6E3}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D6351AE4-F427-4C3B-A2EA-A4A9B18FCC6D}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{DE3C2741-6FD5-4D01-AB5B-7E3A00F2F409}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8A3965DE-94F0-43B0-9C4C-9B23321CE3F5}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B16B9DBE-DCCD-4653-A893-45D3711A7E1F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{212B16C4-A2E5-4F73-B797-5721061E4279}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{CB8D78B4-38C4-427C-96D0-3E997BE16261}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D382FCD8-A3D0-48F2-885E-C399A5F085C6}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E8336406-C139-453D-A30D-B9E119D933CF}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
